--- a/150 - 大系列 - Battle Grid System - 战斗网格系统.xlsx
+++ b/150 - 大系列 - Battle Grid System - 战斗网格系统.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -9,8 +9,10 @@
   <sheets>
     <sheet name="概述说明" sheetId="4" r:id="rId1"/>
     <sheet name="Note标签" sheetId="1" r:id="rId2"/>
-    <sheet name="插件指令" sheetId="2" r:id="rId3"/>
-    <sheet name="插件参数" sheetId="3" r:id="rId4"/>
+    <sheet name="动作序列 - 插件命令" sheetId="2" r:id="rId3"/>
+    <sheet name="插件命令" sheetId="6" r:id="rId4"/>
+    <sheet name="插件参数" sheetId="3" r:id="rId5"/>
+    <sheet name="Movement Types" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="334">
   <si>
     <t>这个插件改变了使用网格系统的战斗。
 网格将由每个团队的节点组成，战斗人员可以在其中移动。
@@ -99,7 +101,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>每个视觉上垂直的列被称为一个"</t>
+      <t>每个视觉上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>垂直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的列被称为一个"</t>
     </r>
     <r>
       <rPr>
@@ -218,7 +241,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>每个视觉上水平的行被称为一个"</t>
+      <t>每个视觉上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的行被称为一个"</t>
     </r>
     <r>
       <rPr>
@@ -620,6 +664,20 @@
 如果最大成员数超过20个，则会自动限制为20个成员。</t>
   </si>
   <si>
+    <t>Temporary Tactical Formations  临时战术编队</t>
+  </si>
+  <si>
+    <t>临时阵型是非常特殊的阵型，会覆盖玩家所做的设置。
+这些涉及每个队员的特定Rank/Flank位置（尽管有些是被自动设置的）。
+在临时阵型的情况下，玩家不能在战斗之外更改它们。然而，一旦在战斗中，可以通过移动命令和/或动作效果来改变位置。</t>
+  </si>
+  <si>
+    <t>当存在临时编队时，涉及更换队员的菜单和战斗命令将被禁用。</t>
+  </si>
+  <si>
+    <t>一旦临时编队解散，玩家自制的阵型设置将被恢复，玩家可以再次调整战术编队。</t>
+  </si>
+  <si>
     <t>Extra Features  额外功能</t>
   </si>
   <si>
@@ -739,7 +797,7 @@
 本节将重点介绍与此插件不兼容的主要插件/功能，或重点介绍如何使某些功能兼容。</t>
   </si>
   <si>
-    <t>在战斗中，如果战场上有挑衅或嘲讽目标，并且试图使用需要选择目标的行动，挑衅或恐吓的目标必须在该行动可以针对的有效受影响Ranks/Flanks范围内，否则该行动将无法使用。</t>
+    <t>在战斗中，如果战场上有挑衅或嘲讽目标，并且尝试使用需要选择目标的行动，挑衅或恐吓的目标必须在该行动可以针对的有效受影响Ranks/Flanks范围内，否则该行动将无法使用。</t>
   </si>
   <si>
     <t>不需要选择目标的技能（通常是具有“随机”范围或“全部”范围的技能）可以绕过这一点，就像在没有战斗网格系统的情况下一样。</t>
@@ -1566,14 +1624,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Movement Types</t>
     </r>
     <r>
@@ -1587,6 +1637,9 @@
       <t xml:space="preserve">
 这些值与&lt;Movement Base&gt;和&lt;Movement Range&gt;注释标记一起使用，是您要插入的值，以代替“type”参数。</t>
     </r>
+  </si>
+  <si>
+    <t>跳转到专页</t>
   </si>
   <si>
     <t>All</t>
@@ -4481,13 +4534,20 @@
     </r>
   </si>
   <si>
-    <t>User Action Movement-Related Notetags  使用者动作移动</t>
+    <t>User Action Movement-Related Notetags  使用者行动 移动</t>
   </si>
   <si>
     <t>&lt;rule Move User Node direction: x&gt;</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">使用此 技能/物品 后，使用者将在指定方向上移动 x 个节点，同时遵循所需的移动规则rule。
 </t>
     </r>
@@ -4840,6 +4900,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>与&lt;rule Move User Node direction: x&gt;一起使用。</t>
     </r>
     <r>
@@ -4891,6 +4958,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">与&lt;rule Move User Node direction: x&gt;一起使用。
 ·还需要视觉效果设置为visual。
 ·可以使用&lt;Visual Move User Node&gt;标签，或相应的插件参数来满足。
@@ -4929,13 +5003,20 @@
     </r>
   </si>
   <si>
-    <t>Target Action Movement-Related Notetags  目标动作移动</t>
+    <t>Target Action Movement-Related Notetags  目标行动 移动</t>
   </si>
   <si>
     <t>&lt;rule Move Target Node direction: x&gt;</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">使用此 技能/物品 后，目标将在指定方向上移动 x 个节点，同时遵循所需的移动规则rule。
 </t>
     </r>
@@ -5257,6 +5338,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>与 &lt;rule Move Target Node direction: x&gt; 一起使用。</t>
     </r>
     <r>
@@ -5308,6 +5396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">与&lt;rule Move Target Node direction: x&gt;一起使用。
 ·还需要视觉效果设置为visual。
 ·可以使用&lt;Visual Move Target Node&gt;标签，或相应的插件参数来满足。
@@ -5350,6 +5445,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>与其中一个目标移动标签一起使用。
 根据目标移动的距离，造成使用者的</t>
     </r>
@@ -5466,7 +5568,116 @@
     </r>
   </si>
   <si>
-    <t>Action-User Requirements-Related Notetags  动作-用户 需求</t>
+    <t>&lt;Hide Grid Range&gt;</t>
+  </si>
+  <si>
+    <t>隐藏网格范围
+此技能/物品将不会显示其网格目标和可用性范围。
+这些指的是所需的等级/侧翼和节点目标注释标签。</t>
+  </si>
+  <si>
+    <t>&lt;Crash Self Damage Rate: x%&gt;
+&lt;Crash Target Damage Rate: x%&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">以百分比更改碰撞伤害。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·Self：指移动的敌人。
+·Target：指被撞到的敌人。
+·x：表示百分比的数字。该数字将改变基础伤害值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这可以与其他trait对象进行乘法堆叠。
+在 bonus 追加的伤害之前进行计算。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示例用法：橡胶敌人，碰撞的自我伤害较低。
+示例用法：毛茸茸的敌人，碰撞的目标伤害较低。</t>
+    </r>
+  </si>
+  <si>
+    <t>角色，职业，武器，防具，敌人，状态</t>
+  </si>
+  <si>
+    <t>&lt;Crash Self Damage Bonus: +x&gt;
+&lt;Crash Self Damage Bonus: -x&gt;
+&lt;Crash Target Damage Bonus: +x&gt;
+&lt;Crash Target Damage Bonus: -x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">将受到的碰撞伤害更改固定的数值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·Self：指移动的敌人。
+·Target：指被撞到的敌人。
+·x：表示更改伤害的数值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这可以与其他trait对象进行乘法堆叠。
+在 rate 伤害率之后进行计算。
+示例用法：易碎的敌人，有更高的自身伤害加成。
+示例用法：刺状的的敌人，有更高的目标伤害加成。</t>
+    </r>
+  </si>
+  <si>
+    <t>Action-User Requirements-Related Notetags  行动-用户 需求</t>
   </si>
   <si>
     <t>&lt;Require Rank: x&gt;
@@ -5476,6 +5687,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">要求技能/物品的使用者，站在 Rank/Flank 为x的节点上，才能在战斗中使用。
 </t>
     </r>
@@ -5511,6 +5729,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>要求技能/物品的使用者，</t>
     </r>
     <r>
@@ -5588,6 +5813,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">要求技能/物品的使用者站在某个Rank/Flank节点上。
 </t>
     </r>
@@ -5618,7 +5850,7 @@
     </r>
   </si>
   <si>
-    <t>Action-Target Requirements-Related Notetags  动作-目标 需求</t>
+    <t>Action-Target Requirements-Related Notetags  行动-目标 需求</t>
   </si>
   <si>
     <t>&lt;Target Only Rank: x&gt;
@@ -5628,6 +5860,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">技能/物品只会影响在排/侧翼'x'中找到的目标，并且需要在该排/侧翼中找到一个目标才能使用。
 </t>
     </r>
@@ -5686,6 +5925,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>技能/物品将只影响 与行动的使用者在同一排/侧翼中找到的目标。
 ·</t>
     </r>
@@ -5714,6 +5960,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">技能/物品将只影响在特定排/侧翼节点中找到的目标。
 </t>
     </r>
@@ -5755,8 +6008,223 @@
 &lt;Use Weapon Range&gt;</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">技能/物品将使用战斗者的武器射程，而非行动的武器射程。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这将完全绕过“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target Only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”注释标签，而使用“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weapon Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”注释标签。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果角色使用多件武器，则将使用其第一件武器的射程。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果角色未使用任何武器，则将使用默认的近战射程。
+ - 根据插件参数中的设置，默认近战射程可能仅针对前排。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">敌人将使用其自身注释标签中的武器射程。如果在敌人的注释框中未找到任何“武器射程”注释标签，则将使用默认的近战射程。
+ - 根据插件参数中的设置，默认近战射程可能仅针对前排。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注释标签的变体功能相同。选择使用哪种完全取决于个人喜好。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这不适用于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Target: x Node, Rank, Flank&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 注释标签。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Weapon Range Melee&gt;
 &lt;Weapon Range All&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这些是标记特定范围类型的快捷方式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·Melee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 仅瞄准前排。与&lt;Weapon Range Front Rank&gt;相同。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 瞄准整个战场。使用此选项时，所有目标都将成为有效目标。这主要用作绕过默认插件参数武器射程设置的快捷方式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这些注释标签将遵循其他规则：
+·这将应用于所使用的任何瞄准范围之上。
+·这对角色和敌人都适用。
+·如果在“Rank/Flank”中未找到有效目标，则相关操作将被禁用且无法使用。
+·如果战场上有“挑衅（Provoke）”或“嘲讽（Taunt）”目标，并且此操作需要选择目标，则这些目标必须位于此操作可瞄准的有效“排/侧”内，否则此操作无法使用。
+·可与其他“Weapon Range”注释标签一起使用。
+·在战斗之外使用时，请忽略此要求。</t>
+    </r>
+  </si>
+  <si>
+    <t>武器、敌人</t>
   </si>
   <si>
     <t>&lt;Weapon Range Rank: x&gt;
@@ -5765,8 +6233,82 @@
 &lt;Weapon Range Flanks: x, x, x&gt;</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">武器射程仅影响Rank/Flank“x”内的目标，并且需要在该Rank/Flank内找到目标才能使用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代表Rank/Flank的数字，以限制武器射程的范围。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·这将应用于所使用的任何瞄准范围。
+·这对角色和敌人都适用。
+·如果在“Rank/Flank”中未找到有效目标，则相关操作将被禁用且无法使用。
+·如果战场上有“挑衅（Provoke）”或“嘲讽（Taunt）”目标，并且此操作需要选择目标，则这些目标必须位于此操作可瞄准的有效“排/侧”内，否则此操作无法使用。
+·可与其他“Weapon Range”注释标签一起使用。
+·在战斗之外使用时，请忽略此要求。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Weapon Range Same Rank&gt;
 &lt;Weapon Range Same Flank&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>武器射程将只影响 与行动的使用者在同一排/侧翼中找到的目标。
+·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这将应用于所使用的任何瞄准范围之上。
+·这对角色和敌人都适用。
+·如果在排/侧翼中没有找到有效的目标，则相关操作将被禁用且无法使用。
+·如果场上有挑衅或挑衅目标，并且这是一个需要选择目标的动作，那么他们必须在该动作可以针对的有效排/侧翼范围内，否则此操作无法使用。
+·可以与其他“Weapon Range”注释标签一起使用。
+·在战斗之外使用时忽略此要求。</t>
+    </r>
   </si>
   <si>
     <t>&lt;Weapon Range Front Rank&gt;
@@ -5775,14 +6317,112 @@
 &lt;Weapon Range Bottom Flank&gt;</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">武器射程将只影响在特定排/侧翼节点中找到的目标。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·一个队伍的“Front Rank”是 第一个 被活着的成员占据的Rank。
+·一个队伍的“Back Rank”是 最后一个 被活着的成员占据的Rank。
+·一个队伍的“Top Flank”是 第一个 被活着的成员占据的Flank。
+·一个队伍的“Bottom Flank”是 最后一个 被活着的成员占据的Flank。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·这将应用于所使用的任何瞄准范围之上。
+·这对角色和敌人都适用。
+·如果场上有挑衅或挑衅目标，并且这是一个需要选择目标的动作，那么他们必须在该动作可以针对的有效排/侧翼范围内，否则该动作将无法使用。
+·可以与其他“Weapon Range”注释标签一起使用。
+·在战斗之外使用时忽略此要求。</t>
+    </r>
+  </si>
+  <si>
     <t>Action-Target Specific Ranks, Flanks, Nodes-Related Notetags
-动作 - 目标特定 Ranks, Flanks,节点</t>
+行动 - 目标特定 Ranks, Flanks,节点</t>
   </si>
   <si>
     <t>&lt;Target: Enemy Grid Node&gt;
 &lt;Target: Enemy or Ally Grid Node&gt;
 &lt;Target: Ally Grid Node&gt;
 &lt;Target: Ally or Enemy Grid Node&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">允许玩家选择敌人或盟友网格侧（或两侧）的特定节点作为目标。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·使用“Enemy or Ally”或“Ally or Enemy”变体将允许玩家从任一侧进行选择。
+  “Enemy or Ally”默认优先选择敌人侧，而“Ally or Enemy”默认优先选择盟友侧。
+·此项可与&lt;Area of Effect&gt;注释标签一起使用。
+·此项将 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">抑制 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Target Only&gt; 和 &lt;Weapon Range&gt; 注释标签的效果。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+●玩家必须选择包含战斗人员的格子。
+·如果与&lt;Area of Effect&gt;注释标签一起使用，则效果区域内的节点必须至少包含一名战斗者。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>●如果敌方队伍已挑衅用户或存在嘲讽目标，则可选节点将仅限于挑衅者或嘲讽目标。
+·虽然需要选择敌方挑衅者或嘲讽者，但他们无需在技能/物品启动时在场。如果他们更改了节点，目标仍将是所选节点。</t>
+    </r>
   </si>
   <si>
     <t>&lt;Target: Empty Enemy Grid Node&gt;
@@ -5795,6 +6435,89 @@
 &lt;Target: Any Ally or Enemy Grid Node&gt;</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">与 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Target: x Grid Node&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">目标类型类似，但前者要求玩家选择特定类型的节点。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Empty”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">要求玩家选择一个没有任何存活战斗人员站在其上的节点。
+ ·敌方AI和自动战斗AI将选择一个随机的空节点。如果不是，它将选择一个随机节点，无论其是否处于空状态。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Any”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">选项允许玩家选择任意节点。
+ ·敌方AI和自动战斗AI将随机选择一个节点。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此操作不会选择任何战斗者作为目标。
+相反，它将利用所选节点通过“Special Target Node Effects”部分中的动作序列或特殊注释标签执行操作。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Target: Enemy Grid Rank&gt;
 &lt;Target: Enemy or Ally Grid Rank&gt;
 &lt;Target: Ally Grid Rank&gt;
@@ -5821,6 +6544,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Area of Effect Types</t>
     </r>
     <r>
@@ -5836,12 +6567,197 @@
     </r>
   </si>
   <si>
+    <t>Miasma-Related Notetags    瘴气</t>
+  </si>
+  <si>
+    <t>&lt;Miasma Range: type&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Miasma Range&gt;
+ type
+ type
+ type
+&lt;/Miasma Range&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Area of Effect Types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这些值与&lt;Miasma of Effect&gt;注释标记一起使用，是您要插入的值，以代替“type”参数。</t>
+    </r>
+  </si>
+  <si>
+    <t>Temporary Troop Grid-Related Name Tags    临时 敌群 网格</t>
+  </si>
+  <si>
+    <t>&lt;Grid&gt;
+&lt;Battle Grid&gt;
+&lt;No Grid&gt;
+&lt;No Battle Grid&gt;</t>
+  </si>
+  <si>
+    <t>Node Passive States-Related Notetags    节点 被动状态</t>
+  </si>
+  <si>
+    <t>&lt;Actor Node x, y Passive State: id&gt;
+&lt;Actor Node x, y Passive States: id, id, id&gt;
+&lt;Actor Node x, y Passive State: name&gt;
+&lt;Actor Node x, y Passive States: name, name, name&gt;
+&lt;Enemy Node x, y Passive State: id&gt;
+&lt;Enemy Node x, y Passive States: id, id, id&gt;
+&lt;Enemy Node x, y Passive State: name&gt;
+&lt;Enemy Node x, y Passive States: name, name, name&gt;</t>
+  </si>
+  <si>
+    <t>Node Trigger-Related Notetags    节点 触发器</t>
+  </si>
+  <si>
+    <t>&lt;Actor Node x, y Trigger: id&gt;
+&lt;Actor Node x, y Trigger: name&gt;
+&lt;Enemy Node x, y Trigger: id&gt;
+&lt;Enemy Node x, y Trigger: name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Trigger Name: text&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Trigger Icon: x&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Trigger Animation: x&gt;</t>
+  </si>
+  <si>
+    <t>Special Target Node Effects-Related Notetags    特殊目标节点效果</t>
+  </si>
+  <si>
+    <t>&lt;Clear Passive States From Target Node&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Add Passive State To Target Node: id&gt;
+&lt;Add Passive States To Target Node: id, id, id&gt;
+&lt;Add Passive State To Target Node: name&gt;
+&lt;Add Passive States To Target Node: name, name, name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Remove Passive State From Target Node: id&gt;
+&lt;Remove Passive States From Target Node: id, id, id&gt;
+&lt;Remove Passive State From Target Node: name&gt;
+&lt;Remove Passive States From Target Node: name, name, name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Add Trigger to Target Node&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Remove Trigger From Target Node&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Teleport to Target Node&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Traverse to Target Node: x Frames&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Level x Push From Target Node: y Frames&gt;
+&lt;Level x Pull To Target Node: y Frames&gt;</t>
+  </si>
+  <si>
+    <t>Action Sequences - Grid</t>
+  </si>
+  <si>
+    <t>动作序列 - 网格</t>
+  </si>
+  <si>
+    <t>GRID: Action Animation at Node</t>
+  </si>
+  <si>
+    <t>GRID: Add Passive State(s) to Node</t>
+  </si>
+  <si>
+    <t>GRID: Add Trigger to Node</t>
+  </si>
+  <si>
+    <t>GRID: Add Trigger to Node JS</t>
+  </si>
+  <si>
+    <t>GRID: Animation ID at Node</t>
+  </si>
+  <si>
+    <t>GRID: Animation JS at Node</t>
+  </si>
+  <si>
+    <t>GRID: Animation Type at Node</t>
+  </si>
+  <si>
+    <t>GRID: Move Target(s) In Direction</t>
+  </si>
+  <si>
+    <t>GRID: Pull To Target Node</t>
+  </si>
+  <si>
+    <t>GRID: Push From Target Node</t>
+  </si>
+  <si>
+    <t>GRID: Remove All Passive States from Node</t>
+  </si>
+  <si>
+    <t>GRID: Remove Passive State(s) from Node</t>
+  </si>
+  <si>
+    <t>GRID: Remove Trigger from Node</t>
+  </si>
+  <si>
     <t>Scene Plugin Commands</t>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
+    <t>Scene: Open Grid Tactics Scene</t>
+  </si>
+  <si>
+    <t>System Plugin Commands</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>System: Enable Grid Tactics in Menu?</t>
+  </si>
+  <si>
+    <t>System: Show Grid Tactics in Menu?</t>
+  </si>
+  <si>
+    <t>Temporary Tactical Formations Plugin Commands  临时战术编队</t>
+  </si>
+  <si>
+    <t>临时阵型是一种非常特殊的阵型，它会覆盖玩家之前所做的设置。这些阵型会为每个小队成员设置特定的 排/行 位置（尽管有些可以自动设置）。
+在临时阵型生效期间，玩家无法在战斗之外更改它们。但是，一旦进入战斗，玩家可以通过移动命令和/或动作效果更改这些位置。</t>
+  </si>
+  <si>
+    <t>当临时阵型生效时，涉及更改小队成员的菜单和战斗命令将被禁用。</t>
+  </si>
+  <si>
+    <t>临时阵型解散后，玩家自定义的阵型设置将恢复，玩家可以再次调整战术阵型。</t>
+  </si>
+  <si>
+    <t>Temp: Create Temporary Tactics (Normal)</t>
+  </si>
+  <si>
+    <t>Temp: Create Temporary Tactics (JS)</t>
+  </si>
+  <si>
+    <t>Temp: Disband Temporary Tactics</t>
+  </si>
+  <si>
     <t>General Settings</t>
   </si>
   <si>
@@ -5852,6 +6768,9 @@
   </si>
   <si>
     <t>默认</t>
+  </si>
+  <si>
+    <t>跳转回标签页</t>
   </si>
 </sst>
 </file>
@@ -5868,6 +6787,43 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5926,35 +6882,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -5980,14 +6907,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6121,14 +7040,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6141,39 +7062,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6186,16 +7082,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="8"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6230,6 +7126,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="8" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6239,6 +7142,22 @@
       <b/>
       <sz val="10"/>
       <color theme="8" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6719,10 +7638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -6849,110 +7768,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8433,10 +9358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -8446,7 +9371,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="2:2">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8526,10 +9451,10 @@
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
@@ -8537,137 +9462,137 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="94.5" spans="2:2">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="94.5" spans="2:2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="81" spans="2:2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" ht="27" spans="2:2">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" ht="27" spans="2:2">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="27" spans="2:2">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" ht="27" spans="2:2">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="2:2">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" ht="27" spans="2:2">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="2:2">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" ht="54" spans="2:2">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:2">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" ht="27" spans="2:2">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="35" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8677,7 +9602,7 @@
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8687,221 +9612,244 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="23"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="2:2">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" ht="67.5" spans="2:2">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="60" ht="27" spans="2:2">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" ht="27" spans="2:2">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" ht="18.75" spans="1:2">
-      <c r="A63" s="5" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    </row>
+    <row r="64" ht="40.5" spans="2:2">
+      <c r="B64" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="33" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="39" t="s">
+      <c r="B66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="33" t="s">
+    <row r="68" ht="18.75" spans="1:2">
+      <c r="A68" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+      <c r="B68" s="23"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="33" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="2:2">
-      <c r="B70" s="7" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="33" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="35" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="75" ht="27" spans="2:2">
+      <c r="B75" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="33" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" ht="18.75" spans="1:2">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" ht="27" spans="2:2">
-      <c r="B79" s="7" t="s">
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" ht="27" spans="2:2">
-      <c r="B81" s="7" t="s">
+      <c r="A80" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="83" ht="18.75" spans="1:2">
+      <c r="A83" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
+      <c r="B83" s="23"/>
+    </row>
+    <row r="84" ht="27" spans="2:2">
+      <c r="B84" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" ht="27" spans="2:2">
+      <c r="B86" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="33" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" ht="27" spans="2:2">
-      <c r="B89" s="7" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="33" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="33" t="s">
+    <row r="94" ht="27" spans="2:2">
+      <c r="B94" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" ht="27" spans="2:2">
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" ht="27" spans="2:2">
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="39" t="s">
+      <c r="B97" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="35" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="2:2">
+      <c r="B99" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="2:2">
+      <c r="B101" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -8913,805 +9861,1008 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.625" customWidth="1"/>
-    <col min="2" max="2" width="91.625" customWidth="1"/>
+    <col min="1" max="1" width="59.25" customWidth="1"/>
+    <col min="2" max="2" width="94.75" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" ht="90" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>91</v>
+      <c r="A2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="100.5" spans="1:4">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" ht="51" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>102</v>
+      <c r="A7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="37.5" spans="1:3">
       <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>107</v>
+      <c r="A9" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" ht="63" spans="1:3">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:3">
       <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" ht="25.5" spans="1:3">
-      <c r="A13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" ht="25.5" spans="1:3">
-      <c r="A14" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" ht="64.5" spans="1:3">
-      <c r="A15" s="19" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="20" t="s">
+    </row>
+    <row r="13" ht="25.5" hidden="1" spans="1:3">
+      <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" ht="76.5" spans="1:3">
-      <c r="A16" s="19" t="s">
+      <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" ht="25.5" hidden="1" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" ht="27" spans="1:4">
-      <c r="A17" s="19" t="s">
+      <c r="B14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" ht="64.5" hidden="1" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="B15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" ht="76.5" hidden="1" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" ht="27" hidden="1" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="29"/>
       <c r="D17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" ht="63" spans="1:3">
-      <c r="A18" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" ht="27" spans="1:2">
-      <c r="A19" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" ht="63" spans="1:2">
-      <c r="A20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="21" t="s">
+    </row>
+    <row r="18" ht="63" hidden="1" spans="1:3">
+      <c r="A18" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" ht="27" spans="1:2">
-      <c r="A21" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" ht="27" hidden="1" spans="1:2">
+      <c r="A19" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="22" t="s">
+      <c r="B19" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="20" t="s">
+    </row>
+    <row r="20" ht="63" hidden="1" spans="1:2">
+      <c r="A20" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" ht="27" spans="1:2">
-      <c r="A23" s="22" t="s">
+      <c r="B20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="20" t="s">
+    </row>
+    <row r="21" ht="27" hidden="1" spans="1:2">
+      <c r="A21" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="22" t="s">
+      <c r="B21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="20" t="s">
+    </row>
+    <row r="22" ht="76.5" hidden="1" spans="1:2">
+      <c r="A22" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" ht="27" spans="1:2">
-      <c r="A25" s="22" t="s">
+      <c r="B22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="20" t="s">
+    </row>
+    <row r="23" ht="27" hidden="1" spans="1:2">
+      <c r="A23" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" ht="76.5" spans="1:2">
-      <c r="A26" s="22" t="s">
+      <c r="B23" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="20" t="s">
+    </row>
+    <row r="24" ht="76.5" hidden="1" spans="1:2">
+      <c r="A24" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" ht="27" spans="1:2">
-      <c r="A27" s="22" t="s">
+      <c r="B24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="20" t="s">
+    </row>
+    <row r="25" ht="27" hidden="1" spans="1:2">
+      <c r="A25" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" ht="88.5" spans="1:2">
-      <c r="A28" s="22" t="s">
+      <c r="B25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="20" t="s">
+    </row>
+    <row r="26" ht="76.5" hidden="1" spans="1:2">
+      <c r="A26" s="11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" ht="27" spans="1:2">
-      <c r="A29" s="22" t="s">
+      <c r="B26" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="20" t="s">
+    </row>
+    <row r="27" ht="27" hidden="1" spans="1:2">
+      <c r="A27" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="30" ht="88.5" spans="1:2">
-      <c r="A30" s="22" t="s">
+      <c r="B27" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="20" t="s">
+    </row>
+    <row r="28" ht="88.5" hidden="1" spans="1:2">
+      <c r="A28" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" ht="27" spans="1:2">
-      <c r="A31" s="22" t="s">
+      <c r="B28" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="20" t="s">
+    </row>
+    <row r="29" ht="27" hidden="1" spans="1:2">
+      <c r="A29" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" ht="88.5" spans="1:2">
-      <c r="A32" s="22" t="s">
+      <c r="B29" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="20" t="s">
+    </row>
+    <row r="30" ht="88.5" hidden="1" spans="1:2">
+      <c r="A30" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="33" ht="27" spans="1:2">
-      <c r="A33" s="22" t="s">
+      <c r="B30" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="20" t="s">
+    </row>
+    <row r="31" ht="27" hidden="1" spans="1:2">
+      <c r="A31" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="34" ht="88.5" spans="1:2">
-      <c r="A34" s="23" t="s">
+      <c r="B31" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="20" t="s">
+    </row>
+    <row r="32" ht="88.5" hidden="1" spans="1:2">
+      <c r="A32" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="24" t="s">
+      <c r="B32" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="15" t="s">
+    </row>
+    <row r="33" ht="27" hidden="1" spans="1:2">
+      <c r="A33" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="22" t="s">
+      <c r="B33" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="20" t="s">
+    </row>
+    <row r="34" ht="88.5" hidden="1" spans="1:2">
+      <c r="A34" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" ht="27" spans="1:2">
-      <c r="A37" s="22" t="s">
+      <c r="B34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="20" t="s">
+    </row>
+    <row r="35" ht="51" hidden="1" spans="1:2">
+      <c r="A35" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="22" t="s">
+      <c r="B35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="20" t="s">
+    </row>
+    <row r="36" ht="51" hidden="1" spans="1:2">
+      <c r="A36" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" ht="27" spans="1:2">
-      <c r="A39" s="22" t="s">
+      <c r="B36" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="20" t="s">
+    </row>
+    <row r="37" ht="27" hidden="1" spans="1:2">
+      <c r="A37" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="40" ht="51" spans="1:2">
-      <c r="A40" s="22" t="s">
+      <c r="B37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="20" t="s">
+    </row>
+    <row r="38" ht="51" hidden="1" spans="1:2">
+      <c r="A38" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="41" ht="27" spans="1:2">
-      <c r="A41" s="22" t="s">
+      <c r="B38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="20" t="s">
+    </row>
+    <row r="39" ht="27" hidden="1" spans="1:2">
+      <c r="A39" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="42" ht="54" spans="1:2">
-      <c r="A42" s="22" t="s">
+      <c r="B39" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="20" t="s">
+    </row>
+    <row r="40" ht="51" hidden="1" spans="1:2">
+      <c r="A40" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="43" ht="27" spans="1:2">
-      <c r="A43" s="22" t="s">
+      <c r="B40" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="20" t="s">
+    </row>
+    <row r="41" ht="27" hidden="1" spans="1:2">
+      <c r="A41" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" ht="54" spans="1:2">
-      <c r="A44" s="22" t="s">
+      <c r="B41" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="20" t="s">
+    </row>
+    <row r="42" ht="54" hidden="1" spans="1:2">
+      <c r="A42" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" ht="27" spans="1:2">
-      <c r="A45" s="22" t="s">
+      <c r="B42" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="20" t="s">
+    </row>
+    <row r="43" ht="27" hidden="1" spans="1:2">
+      <c r="A43" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" ht="54" spans="1:2">
-      <c r="A46" s="22" t="s">
+      <c r="B43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="20" t="s">
+    </row>
+    <row r="44" ht="54" hidden="1" spans="1:2">
+      <c r="A44" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" ht="27" spans="1:2">
-      <c r="A47" s="22" t="s">
+      <c r="B44" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="20" t="s">
+    </row>
+    <row r="45" ht="27" hidden="1" spans="1:2">
+      <c r="A45" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="48" ht="54" spans="1:2">
-      <c r="A48" s="22" t="s">
+      <c r="B45" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="20" t="s">
+    </row>
+    <row r="46" ht="54" hidden="1" spans="1:2">
+      <c r="A46" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" ht="27" spans="1:2">
-      <c r="A49" s="22" t="s">
+      <c r="B46" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="20" t="s">
+    </row>
+    <row r="47" ht="27" hidden="1" spans="1:2">
+      <c r="A47" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" ht="54" spans="1:2">
-      <c r="A50" s="22" t="s">
+      <c r="B47" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="20" t="s">
+    </row>
+    <row r="48" ht="54" hidden="1" spans="1:2">
+      <c r="A48" s="11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="51" ht="27" spans="1:2">
-      <c r="A51" s="22" t="s">
+      <c r="B48" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="20" t="s">
+    </row>
+    <row r="49" ht="27" hidden="1" spans="1:2">
+      <c r="A49" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" ht="54" spans="1:2">
-      <c r="A52" s="22" t="s">
+      <c r="B49" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="20" t="s">
+    </row>
+    <row r="50" ht="54" hidden="1" spans="1:2">
+      <c r="A50" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="53" ht="27" spans="1:2">
-      <c r="A53" s="22" t="s">
+      <c r="B50" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="20" t="s">
+    </row>
+    <row r="51" ht="27" hidden="1" spans="1:2">
+      <c r="A51" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="54" ht="54" spans="1:2">
-      <c r="A54" s="23" t="s">
+      <c r="B51" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="20" t="s">
+    </row>
+    <row r="52" ht="54" hidden="1" spans="1:2">
+      <c r="A52" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="55" ht="25.5" spans="1:2">
-      <c r="A55" s="24" t="s">
+      <c r="B52" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="15" t="s">
+    </row>
+    <row r="53" ht="27" hidden="1" spans="1:2">
+      <c r="A53" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" ht="25.5" spans="1:2">
-      <c r="A56" s="22" t="s">
+      <c r="B53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="20" t="s">
+    </row>
+    <row r="54" ht="54" hidden="1" spans="1:2">
+      <c r="A54" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" ht="25.5" spans="1:2">
-      <c r="A57" s="22" t="s">
+      <c r="B54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="20" t="s">
+    </row>
+    <row r="55" ht="25.5" hidden="1" spans="1:2">
+      <c r="A55" s="13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="22" t="s">
+      <c r="B55" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B58" s="20" t="s">
+    </row>
+    <row r="56" ht="25.5" hidden="1" spans="1:2">
+      <c r="A56" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" ht="25.5" spans="1:2">
-      <c r="A59" s="22" t="s">
+      <c r="B56" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B59" s="20" t="s">
+    </row>
+    <row r="57" ht="25.5" hidden="1" spans="1:2">
+      <c r="A57" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="60" ht="26.25" spans="1:2">
-      <c r="A60" s="25" t="s">
+      <c r="B57" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B60" s="26" t="s">
+    </row>
+    <row r="58" ht="25.5" hidden="1" spans="1:2">
+      <c r="A58" s="11" t="s">
         <v>210</v>
       </c>
+      <c r="B58" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" hidden="1" spans="1:2">
+      <c r="A59" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" ht="26.25" hidden="1" spans="1:2">
+      <c r="A60" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="62" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" ht="349.5" spans="1:4">
       <c r="A63" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="64" ht="52.5" spans="1:3">
-      <c r="A64" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>217</v>
+      <c r="A64" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" ht="73.5" spans="1:3">
       <c r="A65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" t="s">
         <v>219</v>
       </c>
-      <c r="C65" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="67" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A67" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="A67" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
     </row>
     <row r="68" ht="361.5" spans="1:3">
       <c r="A68" t="s">
-        <v>221</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" ht="52.5" spans="1:3">
-      <c r="A69" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>224</v>
+      <c r="A69" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" ht="73.5" spans="1:3">
       <c r="A70" t="s">
-        <v>225</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" ht="99" spans="1:3">
       <c r="A71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" ht="67.5" spans="1:3">
-      <c r="A74" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>231</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" ht="40.5" spans="1:3">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" ht="97.5" spans="1:3">
+      <c r="A73" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" ht="97.5" spans="1:3">
+      <c r="A74" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" ht="67.5" spans="1:3">
-      <c r="A75" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" ht="85.5" spans="1:3">
-      <c r="A76" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A78" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" ht="121.5" spans="1:3">
-      <c r="A79" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B79" s="30" t="s">
         <v>238</v>
       </c>
+    </row>
+    <row r="76" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A76" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+    </row>
+    <row r="77" ht="67.5" spans="1:3">
+      <c r="A77" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" ht="67.5" spans="1:3">
+      <c r="A78" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" ht="85.5" spans="1:3">
+      <c r="A79" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="C79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" ht="111" spans="1:3">
-      <c r="A80" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" ht="145.5" spans="1:3">
-      <c r="A81" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A83" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" ht="27" spans="1:1">
-      <c r="A84" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="1:1">
-      <c r="A85" s="29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" ht="67.5" spans="1:1">
-      <c r="A86" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" ht="27" spans="1:1">
-      <c r="A87" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" ht="67.5" spans="1:1">
-      <c r="A88" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A81" s="22" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="90" customFormat="1" ht="40" customHeight="1" spans="1:3">
-      <c r="A90" s="31" t="s">
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" ht="121.5" spans="1:3">
+      <c r="A82" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-    </row>
-    <row r="91" ht="67.5" spans="1:3">
-      <c r="A91" s="29" t="s">
+      <c r="B82" s="26" t="s">
         <v>250</v>
       </c>
+      <c r="C82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" ht="111" spans="1:3">
+      <c r="A83" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" ht="145.5" spans="1:3">
+      <c r="A84" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A86" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" ht="111" spans="1:3">
+      <c r="A87" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" ht="133.5" spans="1:3">
+      <c r="A88" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" ht="111" spans="1:3">
+      <c r="A89" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" ht="99" spans="1:3">
+      <c r="A90" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" ht="133.5" spans="1:3">
+      <c r="A91" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>266</v>
+      </c>
       <c r="C91" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" ht="121.5" spans="1:3">
-      <c r="A92" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" ht="67.5" spans="1:3">
-      <c r="A93" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" ht="67.5" spans="1:3">
-      <c r="A94" s="29" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" ht="40" customHeight="1" spans="1:3">
+      <c r="A93" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+    </row>
+    <row r="94" ht="109.5" spans="1:3">
+      <c r="A94" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>269</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A96" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>255</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" ht="121.5" spans="1:3">
+      <c r="A95" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" ht="67.5" spans="1:3">
+      <c r="A96" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" ht="67.5" spans="1:3">
+      <c r="A97" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" ht="68.25" spans="1:3">
-      <c r="A98" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C98" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" ht="29" customHeight="1" spans="1:2">
-      <c r="A99" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B99" s="12"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A99" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" ht="68.25" spans="1:3">
+      <c r="A101" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" ht="29" customHeight="1" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A105" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" ht="68.25" spans="1:1">
+      <c r="A107" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" ht="29" customHeight="1" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A111" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+    </row>
+    <row r="112" ht="67.5" spans="1:1">
+      <c r="A112" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A114" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+    </row>
+    <row r="115" ht="148.5" spans="1:1">
+      <c r="A115" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A117" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+    </row>
+    <row r="118" ht="67.5" spans="1:1">
+      <c r="A118" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A123" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" ht="67.5" spans="1:1">
+      <c r="A125" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" ht="67.5" spans="1:1">
+      <c r="A126" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="1:1">
+      <c r="A131" s="21" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A108:B108"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" location="'Movement Types'!A1" display="跳转到专页"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -9721,10 +10872,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -9736,11 +10887,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>259</v>
+      <c r="A1" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -9753,37 +10969,132 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="42.75" customWidth="1"/>
+    <col min="2" max="2" width="55.125" customWidth="1"/>
+    <col min="3" max="3" width="92.9416666666667" customWidth="1"/>
+    <col min="4" max="4" width="107.491666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:1">
+      <c r="A5" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:1">
+      <c r="A8" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:1">
+      <c r="A9" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:1">
+      <c r="A10" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="65.875" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>261</v>
+      <c r="A1" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9791,4 +11102,426 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="114.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" ht="25.5" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" ht="64.5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" ht="76.5" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" ht="63" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" ht="63" spans="1:2">
+      <c r="A10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:2">
+      <c r="A11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" ht="76.5" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:2">
+      <c r="A13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" ht="76.5" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" ht="76.5" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" ht="88.5" spans="1:2">
+      <c r="A18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" ht="88.5" spans="1:2">
+      <c r="A20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" ht="88.5" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" ht="88.5" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" ht="51" spans="1:2">
+      <c r="A25" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" ht="51" spans="1:2">
+      <c r="A26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" ht="51" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" ht="51" spans="1:2">
+      <c r="A30" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="1:2">
+      <c r="A32" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:2">
+      <c r="A33" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="1:2">
+      <c r="A34" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:2">
+      <c r="A35" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:2">
+      <c r="A36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:2">
+      <c r="A37" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" ht="54" spans="1:2">
+      <c r="A38" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:2">
+      <c r="A39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" ht="54" spans="1:2">
+      <c r="A40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:2">
+      <c r="A41" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" ht="54" spans="1:2">
+      <c r="A42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" ht="54" spans="1:2">
+      <c r="A44" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" spans="1:2">
+      <c r="A45" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" spans="1:2">
+      <c r="A46" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" spans="1:2">
+      <c r="A47" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" spans="1:2">
+      <c r="A48" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" spans="1:2">
+      <c r="A49" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" ht="26.25" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Note标签!A12" display="跳转回标签页"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>